--- a/Assets/UDataExcelToJson/Excel/LevelData.xlsx
+++ b/Assets/UDataExcelToJson/Excel/LevelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="21240" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86173:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +128,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>关卡id</t>
   </si>
@@ -132,6 +157,9 @@
     <t>关卡背景图</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>LevelID</t>
   </si>
   <si>
@@ -159,7 +187,58 @@
     <t>Int32</t>
   </si>
   <si>
+    <t>Int32[]</t>
+  </si>
+  <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,18</t>
   </si>
 </sst>
 </file>
@@ -194,6 +273,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -208,8 +302,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -278,24 +373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,9 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -351,25 +430,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,133 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +654,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -593,28 +687,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,9 +713,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,145 +727,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,25 +1199,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,57 +1242,66 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1221,22 +1309,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
         <v>70022</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>70022000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1244,22 +1335,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
         <v>70015</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>70015000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1267,22 +1361,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
         <v>70014</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>70014000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1290,22 +1387,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
         <v>70026</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>70026000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1313,22 +1413,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
         <v>70003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70003001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1336,22 +1439,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
         <v>70032</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70032001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1359,22 +1465,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
         <v>70027</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70027001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1382,22 +1491,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
         <v>70010</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>70010001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1405,22 +1517,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
         <v>70019</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70019001</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1428,22 +1543,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
         <v>70024</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>70024002</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1451,22 +1569,25 @@
         <v>11</v>
       </c>
       <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
         <v>70012</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>70012000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1474,22 +1595,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
         <v>70016</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>70016000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1497,22 +1621,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
         <v>70004</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>70004000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1520,22 +1647,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
         <v>70021</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70021000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1543,22 +1673,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1">
         <v>70009</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70009001</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1566,22 +1699,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1">
         <v>70002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>70002001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1589,22 +1725,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1">
         <v>70006</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>70006001</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1612,22 +1751,25 @@
         <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
         <v>70020</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>70020001</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1635,22 +1777,25 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1">
         <v>70005</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70005001</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1658,22 +1803,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1">
         <v>70018</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>70018002</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1681,22 +1829,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>6</v>
       </c>
-      <c r="E24" s="1">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1">
         <v>70030</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>70030000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1704,22 +1855,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>7</v>
       </c>
-      <c r="E25" s="1">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
         <v>70007</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>70007000</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1727,22 +1881,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="E26" s="1">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
         <v>70045</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>70045000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1750,22 +1907,25 @@
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>9</v>
       </c>
-      <c r="E27" s="1">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
         <v>70043</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70043000</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1773,22 +1933,25 @@
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>10</v>
       </c>
-      <c r="E28" s="1">
-        <v>26</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1">
         <v>70036</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>70036001</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1796,22 +1959,25 @@
         <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>11</v>
       </c>
-      <c r="E29" s="1">
-        <v>27</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1">
         <v>70035</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>70035001</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1819,22 +1985,25 @@
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>12</v>
       </c>
-      <c r="E30" s="1">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1">
         <v>70031</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>70031001</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1842,22 +2011,25 @@
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>13</v>
       </c>
-      <c r="E31" s="1">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1">
         <v>70013</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>70013001</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1865,22 +2037,25 @@
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>14</v>
       </c>
-      <c r="E32" s="1">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1">
         <v>70038</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>70038001</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1888,18 +2063,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>15</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1">
         <v>70044</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70044002</v>
       </c>
     </row>
